--- a/1a - Raw Data/survey/column names for R.xlsx
+++ b/1a - Raw Data/survey/column names for R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Dropbox/T1International_2020/1a - Raw Data/survey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Dropbox/T1International_2020/T1International-OoPE-survey-2020/1a - Raw Data/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E865CC2-268C-BF43-9A02-6BAB3778FE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE1D4C-33FC-C243-BD3D-864855A1A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Record ID</t>
   </si>
@@ -369,12 +369,6 @@
     <t>If comfortable, please share your total average monthly household expenses other than diabetes costs (i.e. rent/mortgage, utilities, food, leisure activities, clothing, etc).</t>
   </si>
   <si>
-    <t>Is there any other information you would like us to know about your diabetes care?</t>
-  </si>
-  <si>
-    <t>If you could tell  your government or people in power one thing, what would you tell them?</t>
-  </si>
-  <si>
     <t>Complete?</t>
   </si>
   <si>
@@ -598,12 +592,6 @@
   </si>
   <si>
     <t>complete</t>
-  </si>
-  <si>
-    <t>tell</t>
-  </si>
-  <si>
-    <t>info_other</t>
   </si>
   <si>
     <t>freq_ratio_not</t>
@@ -1192,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4B8BE5-E92C-6F43-9F24-3BC055C0A063}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,15 +1194,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1222,7 +1210,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1230,7 +1218,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>2</v>
@@ -1238,7 +1226,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>3</v>
@@ -1246,7 +1234,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>4</v>
@@ -1254,7 +1242,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1262,7 +1250,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>6</v>
@@ -1270,7 +1258,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>7</v>
@@ -1278,7 +1266,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1286,7 +1274,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1294,7 +1282,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1302,7 +1290,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1310,7 +1298,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1318,7 +1306,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1326,7 +1314,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1334,7 +1322,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1342,7 +1330,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1350,7 +1338,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1358,7 +1346,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1366,7 +1354,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1374,7 +1362,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1382,7 +1370,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1390,7 +1378,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1398,7 +1386,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1406,7 +1394,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1414,7 +1402,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1422,7 +1410,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1430,7 +1418,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1438,7 +1426,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1446,7 +1434,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1454,7 +1442,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1462,7 +1450,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1470,7 +1458,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -1478,7 +1466,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1486,7 +1474,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1494,7 +1482,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -1502,7 +1490,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -1510,7 +1498,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -1518,7 +1506,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1526,7 +1514,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -1534,7 +1522,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -1542,7 +1530,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -1550,7 +1538,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -1558,7 +1546,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -1566,7 +1554,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -1574,7 +1562,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -1582,7 +1570,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -1590,7 +1578,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -1598,7 +1586,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -1606,7 +1594,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -1614,7 +1602,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -1622,7 +1610,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -1630,7 +1618,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
@@ -1638,7 +1626,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -1646,7 +1634,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -1654,7 +1642,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -1662,7 +1650,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
@@ -1670,7 +1658,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -1678,7 +1666,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
@@ -1686,7 +1674,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -1694,7 +1682,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -1702,7 +1690,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
@@ -1710,7 +1698,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -1718,7 +1706,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
@@ -1726,7 +1714,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -1734,7 +1722,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -1742,7 +1730,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
@@ -1750,7 +1738,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -1758,7 +1746,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
@@ -1766,7 +1754,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -1774,7 +1762,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -1782,7 +1770,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -1790,7 +1778,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -1798,7 +1786,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -1806,7 +1794,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -1814,7 +1802,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -1822,7 +1810,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -1830,7 +1818,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
@@ -1838,7 +1826,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
@@ -1846,7 +1834,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
@@ -1854,7 +1842,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
@@ -1862,7 +1850,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
@@ -1870,7 +1858,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
@@ -1878,7 +1866,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
@@ -1886,7 +1874,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
@@ -1894,7 +1882,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
@@ -1902,7 +1890,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
         <v>76</v>
@@ -1910,7 +1898,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
@@ -1918,7 +1906,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
@@ -1926,7 +1914,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
@@ -1934,7 +1922,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
@@ -1942,7 +1930,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
@@ -1950,7 +1938,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
@@ -1958,7 +1946,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -1966,7 +1954,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
@@ -1974,7 +1962,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
@@ -1982,7 +1970,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
@@ -1990,7 +1978,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
@@ -1998,7 +1986,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
@@ -2006,7 +1994,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -2014,7 +2002,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
@@ -2022,7 +2010,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -2030,7 +2018,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
@@ -2038,7 +2026,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
@@ -2046,7 +2034,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -2054,7 +2042,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
@@ -2062,7 +2050,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -2070,7 +2058,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -2078,7 +2066,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
@@ -2086,7 +2074,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
@@ -2094,7 +2082,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -2102,7 +2090,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>111</v>
@@ -2110,26 +2098,10 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>189</v>
-      </c>
-      <c r="B115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>188</v>
-      </c>
-      <c r="B116" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
